--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,7 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>crude</t>
   </si>
   <si>
     <t>sc</t>
@@ -61,31 +58,40 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
@@ -94,21 +100,15 @@
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -121,31 +121,40 @@
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9416666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -672,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4126984126984127</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="D6">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>111</v>
+        <v>350</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3352713178294573</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C7">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,69 +799,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>343</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="L7">
+        <v>87</v>
+      </c>
+      <c r="M7">
+        <v>87</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8328981723237598</v>
-      </c>
-      <c r="L7">
-        <v>319</v>
-      </c>
-      <c r="M7">
-        <v>319</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>64</v>
-      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1677852348993289</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>124</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8076923076923077</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,12 +849,12 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>0.8055555555555556</v>
@@ -895,16 +880,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,12 +901,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>0.7931034482758621</v>
@@ -947,16 +932,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7625</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6507936507936508</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6264705882352941</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5846153846153846</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5525423728813559</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5523012552301255</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L27">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="M27">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5425531914893617</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,33 +1421,137 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K31">
-        <v>0.4269662921348314</v>
-      </c>
-      <c r="L31">
-        <v>38</v>
-      </c>
-      <c r="M31">
-        <v>38</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>51</v>
+      <c r="K32">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L32">
+        <v>41</v>
+      </c>
+      <c r="M32">
+        <v>41</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
